--- a/Program Manager Capstone/Program-Portfolio-Solution.xlsx
+++ b/Program Manager Capstone/Program-Portfolio-Solution.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80b4d01e8c5b5425/Documents/Skill Up/Program Manager/Course 5 Program Management Capstone Course/Module 1/200836.010 Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{B58FCF1B-B1A0-4EB0-9CD5-5F1BADAD4E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5915651-DDD4-4A71-91B5-53080C6791B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9F5A9E0-BB4A-4E2A-80CA-10EF49B7D9C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio Example" sheetId="3" r:id="rId1"/>
+    <sheet name="Portfolio Solution" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,34 +34,9 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve">Portfolio Goal: TechVision must modernize its internal operations, reduce costs, and foster innovation. By leveraging advanced IT and AI solutions, TechVision can streamline processes, improve productivity, and deliver superior value to its customers. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Program 1: Smart Retail Transformation
 </t>
   </si>
@@ -95,10 +69,6 @@
 AI-Assisted Diagnostics</t>
   </si>
   <si>
-    <t>Project 2: 
- telemedicine Platform</t>
-  </si>
-  <si>
     <t>Project 3: 
 Automated Medical Supply Chain</t>
   </si>
@@ -144,13 +114,20 @@
   <si>
     <t>Project 4:
 Cybersecurity Enhancement</t>
+  </si>
+  <si>
+    <t>Project 2: 
+ Telemedicine Platform</t>
+  </si>
+  <si>
+    <t>Portfolio Goal: To create a future-ready organization that harnesses the power of digital technology and artificial intelligence, driving innovation, efficiency, and exceptional customer experiences. This vision reflects TechVision's commitment to embracing cutting-edge technology to achieve long-term success.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +136,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -312,9 +310,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,104 +367,104 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,6 +490,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="171450"/>
+          <a:ext cx="2447925" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,70 +925,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A469916-DC2E-4EFD-9088-688CBDCC1D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P29"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="F6" sqref="F6:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="15" width="11.7109375" customWidth="1"/>
+    <col min="2" max="15" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="N2" s="26" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="32.25" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="F2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="32.25" customHeight="1">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="32.25" customHeight="1">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -932,69 +1004,69 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" ht="23.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" ht="23.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" ht="23.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1012,69 +1084,69 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="23.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16" ht="23.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" ht="23.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" ht="23.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1092,69 +1164,69 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="F14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="1:16" ht="24" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1172,69 +1244,69 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="F18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
+      <c r="J18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="1:16" ht="24" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="43"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="21" spans="1:16" ht="24" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1252,69 +1324,69 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
+      <c r="J22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" ht="24" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+    </row>
+    <row r="25" spans="1:16" ht="24" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1332,88 +1404,37 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="F22:H24"/>
-    <mergeCell ref="J22:L24"/>
-    <mergeCell ref="N22:P24"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="F26:H28"/>
-    <mergeCell ref="J26:L28"/>
-    <mergeCell ref="N26:P28"/>
+  <mergeCells count="23">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="N2:P4"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="F6:H8"/>
+    <mergeCell ref="J6:L8"/>
+    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="F10:H12"/>
+    <mergeCell ref="J10:L12"/>
+    <mergeCell ref="N10:P12"/>
     <mergeCell ref="B14:D16"/>
     <mergeCell ref="F14:H16"/>
     <mergeCell ref="J14:L16"/>
@@ -1422,19 +1443,13 @@
     <mergeCell ref="F18:H20"/>
     <mergeCell ref="J18:L20"/>
     <mergeCell ref="N18:P20"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:D12"/>
-    <mergeCell ref="F10:H12"/>
-    <mergeCell ref="J10:L12"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="N2:P4"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="F6:H8"/>
-    <mergeCell ref="J6:L8"/>
-    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="F22:H24"/>
+    <mergeCell ref="J22:L24"/>
+    <mergeCell ref="N22:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Program Manager Capstone/Program-Portfolio-Solution.xlsx
+++ b/Program Manager Capstone/Program-Portfolio-Solution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b03a39e68183e059/Program Manager Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Portfolio Solution" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Portfolio Solution'!$A$1:$Q$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -313,6 +316,24 @@
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -444,27 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +934,8 @@
   </sheetPr>
   <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -941,50 +944,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="32.25" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="F2" s="46" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1">
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
@@ -1006,65 +1009,65 @@
     </row>
     <row r="6" spans="1:16" ht="23.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" ht="23.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="23.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="23.25" customHeight="1">
       <c r="A9" s="1"/>
@@ -1086,65 +1089,65 @@
     </row>
     <row r="10" spans="1:16" ht="23.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="23.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="42"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1">
       <c r="A13" s="1"/>
@@ -1166,65 +1169,65 @@
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
@@ -1246,65 +1249,65 @@
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="45"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1">
       <c r="A21" s="1"/>
@@ -1326,65 +1329,65 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
     </row>
     <row r="23" spans="1:16" ht="24" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" ht="24" customHeight="1">
       <c r="A25" s="1"/>
@@ -1424,13 +1427,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="N2:P4"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="F6:H8"/>
-    <mergeCell ref="J6:L8"/>
-    <mergeCell ref="F2:L4"/>
-    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B18:D20"/>
+    <mergeCell ref="F18:H20"/>
+    <mergeCell ref="J18:L20"/>
+    <mergeCell ref="N18:P20"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="F22:H24"/>
+    <mergeCell ref="J22:L24"/>
+    <mergeCell ref="N22:P24"/>
     <mergeCell ref="B10:D12"/>
     <mergeCell ref="F10:H12"/>
     <mergeCell ref="J10:L12"/>
@@ -1439,17 +1443,16 @@
     <mergeCell ref="F14:H16"/>
     <mergeCell ref="J14:L16"/>
     <mergeCell ref="N14:P16"/>
-    <mergeCell ref="B18:D20"/>
-    <mergeCell ref="F18:H20"/>
-    <mergeCell ref="J18:L20"/>
-    <mergeCell ref="N18:P20"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="F22:H24"/>
-    <mergeCell ref="J22:L24"/>
-    <mergeCell ref="N22:P24"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="N2:P4"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="F6:H8"/>
+    <mergeCell ref="J6:L8"/>
+    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="N6:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>